--- a/www.eia.gov/electricity/monthly/xls/table_1_13_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_13_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.13.B. Utility Scale Facility Net Generation from Other Energy Sources</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,13 +1392,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>1572</v>
+        <v>1727</v>
       </c>
       <c r="C7" s="10">
-        <v>1493</v>
+        <v>1652</v>
       </c>
       <c r="D7" s="11">
-        <v>5.2999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -1407,22 +1407,22 @@
         <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>1414</v>
+        <v>1553</v>
       </c>
       <c r="H7" s="10">
-        <v>1330</v>
+        <v>1472</v>
       </c>
       <c r="I7" s="10">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J7" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K7" s="10">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L7" s="10">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="C8" s="13">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="D8" s="14">
-        <v>8.7999999999999995E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="H8" s="13">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="13">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="C9" s="13">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="D9" s="14">
-        <v>6.8000000000000005E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H9" s="13">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="I9" s="13">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J9" s="13">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K9" s="13">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L9" s="13">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="13">
-        <v>736</v>
+        <v>805</v>
       </c>
       <c r="C10" s="13">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="D10" s="14">
-        <v>2.1999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>736</v>
+        <v>805</v>
       </c>
       <c r="H10" s="13">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1544,13 +1544,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D11" s="14">
-        <v>9.1999999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H11" s="13">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>1931</v>
+        <v>2118</v>
       </c>
       <c r="C14" s="10">
-        <v>1965</v>
+        <v>2180</v>
       </c>
       <c r="D14" s="11">
-        <v>-1.7000000000000001E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>1595</v>
+        <v>1754</v>
       </c>
       <c r="H14" s="10">
-        <v>1545</v>
+        <v>1715</v>
       </c>
       <c r="I14" s="10">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="J14" s="10">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
       </c>
       <c r="L14" s="10">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,13 +1696,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="C15" s="13">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="D15" s="14">
-        <v>-4.7E-2</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1711,22 +1711,22 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="H15" s="13">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="I15" s="13">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J15" s="13">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K15" s="13">
         <v>0</v>
       </c>
       <c r="L15" s="13">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,13 +1734,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>756</v>
+        <v>832</v>
       </c>
       <c r="C16" s="13">
-        <v>758</v>
+        <v>837</v>
       </c>
       <c r="D16" s="14">
-        <v>-3.0000000000000001E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>578</v>
+        <v>637</v>
       </c>
       <c r="H16" s="13">
-        <v>596</v>
+        <v>657</v>
       </c>
       <c r="I16" s="13">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J16" s="13">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K16" s="13">
         <v>0</v>
@@ -1772,31 +1772,31 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
+        <v>790</v>
+      </c>
+      <c r="C17" s="13">
+        <v>817</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>750</v>
+      </c>
+      <c r="H17" s="13">
         <v>724</v>
-      </c>
-      <c r="C17" s="13">
-        <v>733</v>
-      </c>
-      <c r="D17" s="14">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
-        <v>683</v>
-      </c>
-      <c r="H17" s="13">
-        <v>650</v>
       </c>
       <c r="I17" s="13">
         <v>41</v>
       </c>
       <c r="J17" s="13">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K17" s="13">
         <v>0</v>
@@ -1810,37 +1810,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>861</v>
+        <v>930</v>
       </c>
       <c r="C18" s="10">
-        <v>970</v>
+        <v>1065</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.112</v>
+        <v>-0.127</v>
       </c>
       <c r="E18" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G18" s="10">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H18" s="10">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I18" s="10">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J18" s="10">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K18" s="10">
-        <v>566</v>
+        <v>610</v>
       </c>
       <c r="L18" s="10">
-        <v>618</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,13 +1848,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C19" s="13">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.14799999999999999</v>
+        <v>-0.13700000000000001</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -1863,11 +1863,11 @@
         <v>0</v>
       </c>
       <c r="G19" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H19" s="13">
         <v>-4</v>
       </c>
-      <c r="H19" s="13">
-        <v>-3</v>
-      </c>
       <c r="I19" s="13">
         <v>0</v>
       </c>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="13">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L19" s="13">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,13 +1886,13 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C20" s="13">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="D20" s="14">
-        <v>-7.3999999999999996E-2</v>
+        <v>-0.113</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -1907,16 +1907,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J20" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K20" s="13">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="L20" s="13">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,37 +1924,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C21" s="13">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="D21" s="14">
-        <v>-0.19700000000000001</v>
+        <v>-0.20599999999999999</v>
       </c>
       <c r="E21" s="13">
         <v>11</v>
       </c>
       <c r="F21" s="13">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G21" s="13">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H21" s="13">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I21" s="13">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J21" s="13">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K21" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,13 +1962,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D22" s="14">
-        <v>-9.6620000000000008</v>
+        <v>-8.9649999999999999</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="13">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,19 +2000,19 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C23" s="13">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D23" s="14">
-        <v>-9.2999999999999999E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L23" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,37 +2038,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="C24" s="10">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="D24" s="11">
-        <v>-5.1999999999999998E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="E24" s="10">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F24" s="10">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G24" s="10">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H24" s="10">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I24" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J24" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K24" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L24" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2079,10 +2079,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="14">
-        <v>1.5980000000000001</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="L25" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2152,37 +2152,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="C27" s="13">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="D27" s="14">
-        <v>0.05</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F27" s="13">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G27" s="13">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H27" s="13">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I27" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J27" s="13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K27" s="13">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L27" s="13">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,19 +2190,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="13">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.82599999999999996</v>
+        <v>-0.83099999999999996</v>
       </c>
       <c r="E28" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="13">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -2266,19 +2266,19 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C30" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D30" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="E30" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F30" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>4004</v>
+        <v>4383</v>
       </c>
       <c r="C32" s="10">
-        <v>3851</v>
+        <v>4212</v>
       </c>
       <c r="D32" s="11">
-        <v>0.04</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -2357,22 +2357,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="10">
-        <v>2079</v>
+        <v>2282</v>
       </c>
       <c r="H32" s="10">
-        <v>1923</v>
+        <v>2122</v>
       </c>
       <c r="I32" s="10">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J32" s="10">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K32" s="10">
-        <v>1759</v>
+        <v>1918</v>
       </c>
       <c r="L32" s="10">
-        <v>1755</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,13 +2456,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>2665</v>
+        <v>2910</v>
       </c>
       <c r="C35" s="13">
-        <v>2541</v>
+        <v>2754</v>
       </c>
       <c r="D35" s="14">
-        <v>4.9000000000000002E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E35" s="13">
         <v>0</v>
@@ -2471,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="13">
-        <v>1261</v>
+        <v>1379</v>
       </c>
       <c r="H35" s="13">
-        <v>1134</v>
+        <v>1245</v>
       </c>
       <c r="I35" s="13">
         <v>0</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="13">
-        <v>1405</v>
+        <v>1531</v>
       </c>
       <c r="L35" s="13">
-        <v>1407</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,13 +2494,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C36" s="13">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D36" s="14">
-        <v>0.35099999999999998</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E36" s="13">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L36" s="13">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="C37" s="13">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="D37" s="14">
-        <v>2.7E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="H37" s="13">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>48</v>
@@ -2570,13 +2570,13 @@
         <v>49</v>
       </c>
       <c r="B38" s="13">
-        <v>570</v>
+        <v>624</v>
       </c>
       <c r="C38" s="13">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="D38" s="14">
-        <v>1.6E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
@@ -2585,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="13">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="H38" s="13">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="I38" s="13">
         <v>0</v>
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="13">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="L38" s="13">
-        <v>245</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,13 +2608,13 @@
         <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D39" s="14">
-        <v>-7.2999999999999995E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="E39" s="13">
         <v>0</v>
@@ -2635,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L39" s="13">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,13 +2646,13 @@
         <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="C40" s="13">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="D40" s="14">
-        <v>-1.9E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="E40" s="13">
         <v>0</v>
@@ -2661,16 +2661,16 @@
         <v>0</v>
       </c>
       <c r="G40" s="13">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="H40" s="13">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I40" s="13">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J40" s="13">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K40" s="13">
         <v>0</v>
@@ -2722,19 +2722,19 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C42" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D42" s="11">
-        <v>6.0999999999999999E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E42" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F42" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L42" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2798,19 +2798,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C44" s="13">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D44" s="14">
-        <v>0.17499999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="E44" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F44" s="13">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G44" s="13">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="14">
-        <v>-8.4000000000000005E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.13</v>
+        <v>-0.184</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>15</v>
       </c>
       <c r="L46" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,13 +2912,13 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>1191</v>
+        <v>1307</v>
       </c>
       <c r="C47" s="10">
-        <v>1246</v>
+        <v>1401</v>
       </c>
       <c r="D47" s="11">
-        <v>-4.3999999999999997E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H47" s="10">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="10">
-        <v>1162</v>
+        <v>1276</v>
       </c>
       <c r="L47" s="10">
-        <v>1174</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2953,10 +2953,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" s="14">
-        <v>-0.59599999999999997</v>
+        <v>-0.61599999999999999</v>
       </c>
       <c r="E48" s="13">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>4</v>
       </c>
       <c r="L48" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>560</v>
+        <v>616</v>
       </c>
       <c r="C49" s="13">
-        <v>627</v>
+        <v>710</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.107</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>560</v>
+        <v>616</v>
       </c>
       <c r="L49" s="13">
-        <v>627</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3026,13 +3026,13 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C50" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="14">
-        <v>2.411</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="E50" s="13">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" s="13">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L50" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,13 +3064,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="C51" s="13">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="D51" s="14">
-        <v>-7.0000000000000001E-3</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H51" s="13">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>585</v>
+        <v>641</v>
       </c>
       <c r="L51" s="13">
-        <v>528</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,25 +3102,25 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="C52" s="10">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="D52" s="11">
-        <v>2.1999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F52" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="10">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="H52" s="10">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="10">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="L52" s="10">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3178,13 +3178,13 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C54" s="13">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D54" s="14">
-        <v>-3.5000000000000003E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E54" s="13">
         <v>0</v>
@@ -3193,11 +3193,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="13">
+        <v>12</v>
+      </c>
+      <c r="H54" s="13">
         <v>11</v>
       </c>
-      <c r="H54" s="13">
-        <v>10</v>
-      </c>
       <c r="I54" s="13">
         <v>0</v>
       </c>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="K54" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L54" s="13">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3216,13 +3216,13 @@
         <v>66</v>
       </c>
       <c r="B55" s="13">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C55" s="13">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D55" s="14">
-        <v>-0.05</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="13">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L55" s="13">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3254,13 +3254,13 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="C56" s="13">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D56" s="14">
-        <v>4.8000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H56" s="13">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C59" s="13">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D59" s="14">
-        <v>0.91500000000000004</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="E59" s="13">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="13">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L59" s="13">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="13">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D60" s="14">
         <v>-1</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="13">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3444,25 +3444,25 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>750</v>
+        <v>829</v>
       </c>
       <c r="C61" s="10">
-        <v>791</v>
+        <v>867</v>
       </c>
       <c r="D61" s="11">
-        <v>-5.0999999999999997E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F61" s="10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G61" s="10">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="H61" s="10">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="10">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="L61" s="10">
-        <v>537</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>659</v>
+        <v>729</v>
       </c>
       <c r="C62" s="13">
-        <v>668</v>
+        <v>737</v>
       </c>
       <c r="D62" s="14">
-        <v>-1.4E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>48</v>
@@ -3497,10 +3497,10 @@
         <v>-1</v>
       </c>
       <c r="G62" s="13">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="H62" s="13">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I62" s="13">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="13">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="L62" s="13">
-        <v>498</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3520,25 +3520,25 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C63" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D63" s="14">
-        <v>0.127</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F63" s="13">
-        <v>-0.38</v>
+        <v>-0.42</v>
       </c>
       <c r="G63" s="13">
+        <v>43</v>
+      </c>
+      <c r="H63" s="13">
         <v>39</v>
-      </c>
-      <c r="H63" s="13">
-        <v>35</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -3558,13 +3558,13 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C64" s="13">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.40600000000000003</v>
+        <v>-0.376</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3573,10 +3573,10 @@
         <v>-0.01</v>
       </c>
       <c r="G64" s="13">
+        <v>57</v>
+      </c>
+      <c r="H64" s="13">
         <v>52</v>
-      </c>
-      <c r="H64" s="13">
-        <v>49</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3596,31 +3596,31 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C65" s="10">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D65" s="11">
-        <v>-0.42899999999999999</v>
+        <v>-0.433</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F65" s="10">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G65" s="10">
         <v>11</v>
       </c>
       <c r="H65" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I65" s="10">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J65" s="10">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K65" s="10">
         <v>0</v>
@@ -3672,31 +3672,31 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C67" s="13">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.434</v>
+        <v>-0.438</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
       </c>
       <c r="F67" s="13">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G67" s="13">
         <v>11</v>
       </c>
       <c r="H67" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I67" s="13">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J67" s="13">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K67" s="13">
         <v>0</v>
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>11458</v>
+        <v>12550</v>
       </c>
       <c r="C68" s="10">
-        <v>11603</v>
+        <v>12800</v>
       </c>
       <c r="D68" s="11">
-        <v>-1.2E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="F68" s="10">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="G68" s="10">
-        <v>5918</v>
+        <v>6494</v>
       </c>
       <c r="H68" s="10">
-        <v>5640</v>
+        <v>6231</v>
       </c>
       <c r="I68" s="10">
-        <v>908</v>
+        <v>993</v>
       </c>
       <c r="J68" s="10">
-        <v>970</v>
+        <v>1072</v>
       </c>
       <c r="K68" s="10">
-        <v>4369</v>
+        <v>4776</v>
       </c>
       <c r="L68" s="10">
-        <v>4531</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
